--- a/fileSample/plugsityCustomerInvite.xlsx
+++ b/fileSample/plugsityCustomerInvite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anilvishwakarma/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3AEB6B-FDEA-3F41-9BAD-3F72C85FF034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F25924D-E428-BE49-BFD1-9CD32F78DBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16220" xr2:uid="{0A84970D-76F5-7E48-985D-D9BDD69879F8}"/>
+    <workbookView xWindow="780" yWindow="820" windowWidth="27640" windowHeight="16220" xr2:uid="{0A84970D-76F5-7E48-985D-D9BDD69879F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,34 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>businessName</t>
-  </si>
-  <si>
-    <t>businessEmail</t>
-  </si>
-  <si>
-    <t>businessWebsite</t>
-  </si>
-  <si>
-    <t>businessPhoneNumber</t>
-  </si>
-  <si>
-    <t>businessAddress</t>
-  </si>
-  <si>
-    <t>businessSocialMedia</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>sample</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>zipCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +73,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFC77DBB"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,10 +102,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,7 +443,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,34 +455,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>99293992</v>
@@ -483,12 +488,23 @@
       <c r="E2">
         <v>400101</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>289329399</v>
+      </c>
+      <c r="E3">
+        <v>400101</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -505,6 +521,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="wfsd2@gmail.com" xr:uid="{3B9BACC0-F480-8044-8980-C06573F6CDB9}"/>
+    <hyperlink ref="A3" r:id="rId2" display="wfsd2@gmail.com" xr:uid="{4D385A3C-F752-DE48-8077-D3DA8D329EB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fileSample/plugsityCustomerInvite.xlsx
+++ b/fileSample/plugsityCustomerInvite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F25924D-E428-BE49-BFD1-9CD32F78DBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE49F6-D905-A843-A181-CEB6C012B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="820" windowWidth="27640" windowHeight="16220" xr2:uid="{0A84970D-76F5-7E48-985D-D9BDD69879F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>sample</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>zipCode</t>
   </si>
 </sst>
 </file>
@@ -443,7 +440,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,9 +464,7 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -485,9 +480,6 @@
       <c r="D2">
         <v>99293992</v>
       </c>
-      <c r="E2">
-        <v>400101</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -501,9 +493,6 @@
       </c>
       <c r="D3">
         <v>289329399</v>
-      </c>
-      <c r="E3">
-        <v>400101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">

--- a/fileSample/plugsityCustomerInvite.xlsx
+++ b/fileSample/plugsityCustomerInvite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAE49F6-D905-A843-A181-CEB6C012B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77550BA1-7B48-5E42-9ED1-F9C591E0C3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="820" windowWidth="27640" windowHeight="16220" xr2:uid="{0A84970D-76F5-7E48-985D-D9BDD69879F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>sample</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>sdkdk@dsl</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,9 +468,11 @@
         <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -474,11 +482,11 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>99293992</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -488,11 +496,12 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3">
-        <v>289329399</v>
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <v>3081357895</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -511,6 +520,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="wfsd2@gmail.com" xr:uid="{3B9BACC0-F480-8044-8980-C06573F6CDB9}"/>
     <hyperlink ref="A3" r:id="rId2" display="wfsd2@gmail.com" xr:uid="{4D385A3C-F752-DE48-8077-D3DA8D329EB7}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{145E1F0B-433E-6946-A219-CC4ADF0D06F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
